--- a/customDBFormat.xlsx
+++ b/customDBFormat.xlsx
@@ -90,12 +90,6 @@
     <t>Student ID Number</t>
   </si>
   <si>
-    <t>Family/Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>MI</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Assessment Results</t>
   </si>
   <si>
-    <t>Employment Date (mm-dd-yy)</t>
-  </si>
-  <si>
     <t>Name of Employer</t>
   </si>
   <si>
@@ -524,6 +515,15 @@
   </si>
   <si>
     <t>HighestEducationalAttainment</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>EmploymentDate</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2246,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,28 +2313,28 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>2</v>
@@ -2343,55 +2343,55 @@
         <v>1</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -2405,83 +2405,83 @@
     </row>
     <row r="2" spans="1:54" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="V2" s="15">
         <v>9328915629</v>
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="AD2" s="16">
         <v>26802</v>
@@ -2490,16 +2490,16 @@
         <v>41.213698630136989</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="13"/>
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL2" s="16">
         <v>41845</v>
@@ -2508,11 +2508,11 @@
         <v>41883</v>
       </c>
       <c r="AN2" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AO2" s="13"/>
       <c r="AP2" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ2" s="17"/>
       <c r="AR2" s="13"/>
@@ -2529,83 +2529,83 @@
     </row>
     <row r="3" spans="1:54" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="J3" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="V3" s="15">
         <v>9294912497</v>
       </c>
       <c r="W3" s="13"/>
       <c r="X3" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD3" s="16">
         <v>25443</v>
@@ -2614,16 +2614,16 @@
         <v>44.93150684931507</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL3" s="16">
         <v>41843</v>
@@ -2632,11 +2632,11 @@
         <v>41886</v>
       </c>
       <c r="AN3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AO3" s="13"/>
       <c r="AP3" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ3" s="17"/>
       <c r="AR3" s="13"/>
@@ -2653,85 +2653,85 @@
     </row>
     <row r="4" spans="1:54" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="V4" s="15">
         <v>9423896591</v>
       </c>
       <c r="W4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="AA4" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="16">
         <v>29073</v>
@@ -2740,20 +2740,20 @@
         <v>34</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL4" s="16">
         <v>41765</v>
@@ -2762,11 +2762,11 @@
         <v>41778</v>
       </c>
       <c r="AN4" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO4" s="13"/>
       <c r="AP4" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ4" s="17"/>
       <c r="AR4" s="13"/>
@@ -2783,85 +2783,85 @@
     </row>
     <row r="5" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="V5" s="15">
         <v>9157791805</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="16">
         <v>24617</v>
@@ -2870,20 +2870,20 @@
         <v>46</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL5" s="16">
         <v>41765</v>
@@ -2892,11 +2892,11 @@
         <v>41778</v>
       </c>
       <c r="AN5" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO5" s="13"/>
       <c r="AP5" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ5" s="17"/>
       <c r="AR5" s="13"/>
@@ -2913,85 +2913,85 @@
     </row>
     <row r="6" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V6" s="15">
         <v>9184925848</v>
       </c>
       <c r="W6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="AA6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="AB6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="AC6" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="16">
         <v>28354</v>
@@ -3000,20 +3000,20 @@
         <v>36</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AK6" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL6" s="16">
         <v>41765</v>
@@ -3022,11 +3022,11 @@
         <v>41778</v>
       </c>
       <c r="AN6" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO6" s="13"/>
       <c r="AP6" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="13"/>
@@ -3043,85 +3043,85 @@
     </row>
     <row r="7" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="V7" s="15">
         <v>9098679395</v>
       </c>
       <c r="W7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="AA7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Y7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="AC7" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD7" s="16">
         <v>24606</v>
@@ -3130,20 +3130,20 @@
         <v>46</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AK7" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL7" s="16">
         <v>41765</v>
@@ -3152,11 +3152,11 @@
         <v>41778</v>
       </c>
       <c r="AN7" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO7" s="13"/>
       <c r="AP7" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ7" s="17"/>
       <c r="AR7" s="13"/>
@@ -3173,85 +3173,85 @@
     </row>
     <row r="8" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="V8" s="15">
         <v>9155280098</v>
       </c>
       <c r="W8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z8" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="AA8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="AC8" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD8" s="16">
         <v>28852</v>
@@ -3260,20 +3260,20 @@
         <v>35</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG8" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH8" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK8" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL8" s="16">
         <v>41765</v>
@@ -3282,11 +3282,11 @@
         <v>41778</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO8" s="13"/>
       <c r="AP8" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="13"/>
@@ -3303,85 +3303,85 @@
     </row>
     <row r="9" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="V9" s="15">
         <v>9067906180</v>
       </c>
       <c r="W9" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z9" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="AA9" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD9" s="16">
         <v>34721</v>
@@ -3390,20 +3390,20 @@
         <v>19</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH9" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL9" s="16">
         <v>41765</v>
@@ -3412,11 +3412,11 @@
         <v>41778</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO9" s="13"/>
       <c r="AP9" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="13"/>
@@ -3433,85 +3433,85 @@
     </row>
     <row r="10" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V10" s="15">
         <v>9174683379</v>
       </c>
       <c r="W10" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="X10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="AA10" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD10" s="16">
         <v>25212</v>
@@ -3520,20 +3520,20 @@
         <v>45</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AK10" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL10" s="16">
         <v>41765</v>
@@ -3542,11 +3542,11 @@
         <v>41778</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="13"/>
@@ -3563,85 +3563,85 @@
     </row>
     <row r="11" spans="1:54" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="U11" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="V11" s="15">
         <v>9357551800</v>
       </c>
       <c r="W11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="AB11" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD11" s="16">
         <v>34115</v>
@@ -3650,20 +3650,20 @@
         <v>21</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH11" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AK11" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL11" s="16">
         <v>41765</v>
@@ -3672,11 +3672,11 @@
         <v>41778</v>
       </c>
       <c r="AN11" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="13"/>
